--- a/Excel-XLSX/UN-KOR.xlsx
+++ b/Excel-XLSX/UN-KOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1343">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Hu846P</t>
+    <t>DsPIm2</t>
   </si>
   <si>
     <t>1978</t>
@@ -3867,30 +3867,39 @@
     <t>957</t>
   </si>
   <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>2441</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
     <t>965</t>
   </si>
   <si>
-    <t>958</t>
-  </si>
-  <si>
-    <t>2359</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>961</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>964</t>
-  </si>
-  <si>
     <t>966</t>
   </si>
   <si>
@@ -3900,9 +3909,6 @@
     <t>968</t>
   </si>
   <si>
-    <t>3037</t>
-  </si>
-  <si>
     <t>969</t>
   </si>
   <si>
@@ -3912,15 +3918,15 @@
     <t>971</t>
   </si>
   <si>
+    <t>3492</t>
+  </si>
+  <si>
     <t>972</t>
   </si>
   <si>
     <t>973</t>
   </si>
   <si>
-    <t>2892</t>
-  </si>
-  <si>
     <t>974</t>
   </si>
   <si>
@@ -3930,6 +3936,9 @@
     <t>976</t>
   </si>
   <si>
+    <t>2933</t>
+  </si>
+  <si>
     <t>978</t>
   </si>
   <si>
@@ -3939,9 +3948,6 @@
     <t>980</t>
   </si>
   <si>
-    <t>1362</t>
-  </si>
-  <si>
     <t>981</t>
   </si>
   <si>
@@ -3951,18 +3957,21 @@
     <t>983</t>
   </si>
   <si>
+    <t>1731</t>
+  </si>
+  <si>
     <t>984</t>
   </si>
   <si>
+    <t>1652</t>
+  </si>
+  <si>
     <t>985</t>
   </si>
   <si>
     <t>986</t>
   </si>
   <si>
-    <t>1161</t>
-  </si>
-  <si>
     <t>987</t>
   </si>
   <si>
@@ -3972,7 +3981,7 @@
     <t>989</t>
   </si>
   <si>
-    <t>7718</t>
+    <t>1375</t>
   </si>
   <si>
     <t>990</t>
@@ -3984,15 +3993,15 @@
     <t>993</t>
   </si>
   <si>
+    <t>8669</t>
+  </si>
+  <si>
     <t>994</t>
   </si>
   <si>
     <t>995</t>
   </si>
   <si>
-    <t>1276</t>
-  </si>
-  <si>
     <t>996</t>
   </si>
   <si>
@@ -4005,12 +4014,12 @@
     <t>999</t>
   </si>
   <si>
+    <t>1281</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
-    <t>1279</t>
-  </si>
-  <si>
     <t>1002</t>
   </si>
   <si>
@@ -4021,6 +4030,21 @@
   </si>
   <si>
     <t>1006</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1012</t>
   </si>
 </sst>
 </file>
@@ -4405,7 +4429,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1007"/>
+  <dimension ref="A1:V1013"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -69258,10 +69282,10 @@
         <v>31</v>
       </c>
       <c r="N954" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O954" s="2" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="P954" s="2" t="s">
         <v>33</v>
@@ -69329,7 +69353,7 @@
         <v>33</v>
       </c>
       <c r="O955" s="2" t="s">
-        <v>58</v>
+        <v>326</v>
       </c>
       <c r="P955" s="2" t="s">
         <v>33</v>
@@ -69394,10 +69418,10 @@
         <v>31</v>
       </c>
       <c r="N956" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="O956" s="2" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="P956" s="2" t="s">
         <v>33</v>
@@ -69462,10 +69486,10 @@
         <v>31</v>
       </c>
       <c r="N957" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O957" s="2" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="P957" s="2" t="s">
         <v>33</v>
@@ -69574,16 +69598,16 @@
         <v>1278</v>
       </c>
       <c r="F959" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G959" s="1" t="s">
-        <v>89</v>
+        <v>1285</v>
       </c>
       <c r="H959" s="1" t="s">
-        <v>90</v>
+        <v>1286</v>
       </c>
       <c r="I959" s="1" t="s">
-        <v>91</v>
+        <v>1286</v>
       </c>
       <c r="J959" s="2" t="s">
         <v>29</v>
@@ -69598,10 +69622,10 @@
         <v>31</v>
       </c>
       <c r="N959" s="2" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="O959" s="2" t="s">
-        <v>1285</v>
+        <v>64</v>
       </c>
       <c r="P959" s="2" t="s">
         <v>33</v>
@@ -69636,22 +69660,22 @@
         <v>22</v>
       </c>
       <c r="D960" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E960" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F960" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G960" s="1" t="s">
-        <v>94</v>
+        <v>808</v>
       </c>
       <c r="H960" s="1" t="s">
-        <v>95</v>
+        <v>809</v>
       </c>
       <c r="I960" s="1" t="s">
-        <v>95</v>
+        <v>809</v>
       </c>
       <c r="J960" s="2" t="s">
         <v>29</v>
@@ -69666,10 +69690,10 @@
         <v>31</v>
       </c>
       <c r="N960" s="2" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="O960" s="2" t="s">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="P960" s="2" t="s">
         <v>33</v>
@@ -69704,22 +69728,22 @@
         <v>22</v>
       </c>
       <c r="D961" s="2" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E961" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F961" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="G961" s="1" t="s">
-        <v>77</v>
+        <v>559</v>
       </c>
       <c r="H961" s="1" t="s">
-        <v>78</v>
+        <v>560</v>
       </c>
       <c r="I961" s="1" t="s">
-        <v>78</v>
+        <v>561</v>
       </c>
       <c r="J961" s="2" t="s">
         <v>29</v>
@@ -69734,10 +69758,10 @@
         <v>31</v>
       </c>
       <c r="N961" s="2" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="O961" s="2" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="P961" s="2" t="s">
         <v>33</v>
@@ -69772,22 +69796,22 @@
         <v>22</v>
       </c>
       <c r="D962" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E962" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F962" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="G962" s="1" t="s">
-        <v>642</v>
+        <v>89</v>
       </c>
       <c r="H962" s="1" t="s">
-        <v>643</v>
+        <v>90</v>
       </c>
       <c r="I962" s="1" t="s">
-        <v>644</v>
+        <v>91</v>
       </c>
       <c r="J962" s="2" t="s">
         <v>29</v>
@@ -69802,10 +69826,10 @@
         <v>31</v>
       </c>
       <c r="N962" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="O962" s="2" t="s">
-        <v>33</v>
+        <v>1290</v>
       </c>
       <c r="P962" s="2" t="s">
         <v>33</v>
@@ -69840,22 +69864,22 @@
         <v>22</v>
       </c>
       <c r="D963" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E963" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F963" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G963" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="H963" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="J963" s="2" t="s">
         <v>29</v>
@@ -69870,10 +69894,10 @@
         <v>31</v>
       </c>
       <c r="N963" s="2" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="O963" s="2" t="s">
-        <v>691</v>
+        <v>333</v>
       </c>
       <c r="P963" s="2" t="s">
         <v>33</v>
@@ -69914,16 +69938,16 @@
         <v>1278</v>
       </c>
       <c r="F964" s="2" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="G964" s="1" t="s">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="H964" s="1" t="s">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="I964" s="1" t="s">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="J964" s="2" t="s">
         <v>29</v>
@@ -69938,10 +69962,10 @@
         <v>31</v>
       </c>
       <c r="N964" s="2" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="O964" s="2" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="P964" s="2" t="s">
         <v>33</v>
@@ -69976,22 +70000,22 @@
         <v>22</v>
       </c>
       <c r="D965" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E965" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F965" s="2" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="G965" s="1" t="s">
-        <v>203</v>
+        <v>642</v>
       </c>
       <c r="H965" s="1" t="s">
-        <v>204</v>
+        <v>643</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>204</v>
+        <v>644</v>
       </c>
       <c r="J965" s="2" t="s">
         <v>29</v>
@@ -70006,10 +70030,10 @@
         <v>31</v>
       </c>
       <c r="N965" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O965" s="2" t="s">
-        <v>395</v>
+        <v>33</v>
       </c>
       <c r="P965" s="2" t="s">
         <v>33</v>
@@ -70044,22 +70068,22 @@
         <v>22</v>
       </c>
       <c r="D966" s="2" t="s">
-        <v>1283</v>
+        <v>1293</v>
       </c>
       <c r="E966" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F966" s="2" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="G966" s="1" t="s">
-        <v>319</v>
+        <v>120</v>
       </c>
       <c r="H966" s="1" t="s">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="I966" s="1" t="s">
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="J966" s="2" t="s">
         <v>29</v>
@@ -70074,10 +70098,10 @@
         <v>31</v>
       </c>
       <c r="N966" s="2" t="s">
-        <v>33</v>
+        <v>338</v>
       </c>
       <c r="O966" s="2" t="s">
-        <v>168</v>
+        <v>452</v>
       </c>
       <c r="P966" s="2" t="s">
         <v>33</v>
@@ -70112,22 +70136,22 @@
         <v>22</v>
       </c>
       <c r="D967" s="2" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="E967" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F967" s="2" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G967" s="1" t="s">
-        <v>724</v>
+        <v>425</v>
       </c>
       <c r="H967" s="1" t="s">
-        <v>725</v>
+        <v>426</v>
       </c>
       <c r="I967" s="1" t="s">
-        <v>726</v>
+        <v>427</v>
       </c>
       <c r="J967" s="2" t="s">
         <v>29</v>
@@ -70142,10 +70166,10 @@
         <v>31</v>
       </c>
       <c r="N967" s="2" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="O967" s="2" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="P967" s="2" t="s">
         <v>33</v>
@@ -70180,22 +70204,22 @@
         <v>22</v>
       </c>
       <c r="D968" s="2" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="E968" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F968" s="2" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="G968" s="1" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="H968" s="1" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="I968" s="1" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="J968" s="2" t="s">
         <v>29</v>
@@ -70210,10 +70234,10 @@
         <v>31</v>
       </c>
       <c r="N968" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="O968" s="2" t="s">
-        <v>33</v>
+        <v>553</v>
       </c>
       <c r="P968" s="2" t="s">
         <v>33</v>
@@ -70248,22 +70272,22 @@
         <v>22</v>
       </c>
       <c r="D969" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="E969" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F969" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G969" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H969" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I969" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J969" s="2" t="s">
         <v>29</v>
@@ -70281,7 +70305,7 @@
         <v>33</v>
       </c>
       <c r="O969" s="2" t="s">
-        <v>1294</v>
+        <v>191</v>
       </c>
       <c r="P969" s="2" t="s">
         <v>33</v>
@@ -70316,22 +70340,22 @@
         <v>22</v>
       </c>
       <c r="D970" s="2" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E970" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F970" s="2" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="G970" s="1" t="s">
-        <v>494</v>
+        <v>724</v>
       </c>
       <c r="H970" s="1" t="s">
-        <v>495</v>
+        <v>725</v>
       </c>
       <c r="I970" s="1" t="s">
-        <v>496</v>
+        <v>726</v>
       </c>
       <c r="J970" s="2" t="s">
         <v>29</v>
@@ -70346,10 +70370,10 @@
         <v>31</v>
       </c>
       <c r="N970" s="2" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="O970" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="P970" s="2" t="s">
         <v>33</v>
@@ -70384,22 +70408,22 @@
         <v>22</v>
       </c>
       <c r="D971" s="2" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E971" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F971" s="2" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="G971" s="1" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="H971" s="1" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="I971" s="1" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="J971" s="2" t="s">
         <v>29</v>
@@ -70414,10 +70438,10 @@
         <v>31</v>
       </c>
       <c r="N971" s="2" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="O971" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="P971" s="2" t="s">
         <v>33</v>
@@ -70452,22 +70476,22 @@
         <v>22</v>
       </c>
       <c r="D972" s="2" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E972" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F972" s="2" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="G972" s="1" t="s">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="H972" s="1" t="s">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="J972" s="2" t="s">
         <v>29</v>
@@ -70482,10 +70506,10 @@
         <v>31</v>
       </c>
       <c r="N972" s="2" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="O972" s="2" t="s">
-        <v>29</v>
+        <v>1300</v>
       </c>
       <c r="P972" s="2" t="s">
         <v>33</v>
@@ -70520,22 +70544,22 @@
         <v>22</v>
       </c>
       <c r="D973" s="2" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="E973" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F973" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G973" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H973" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I973" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J973" s="2" t="s">
         <v>29</v>
@@ -70553,7 +70577,7 @@
         <v>33</v>
       </c>
       <c r="O973" s="2" t="s">
-        <v>87</v>
+        <v>515</v>
       </c>
       <c r="P973" s="2" t="s">
         <v>33</v>
@@ -70588,22 +70612,22 @@
         <v>22</v>
       </c>
       <c r="D974" s="2" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="E974" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F974" s="2" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="G974" s="1" t="s">
-        <v>578</v>
+        <v>62</v>
       </c>
       <c r="H974" s="1" t="s">
-        <v>579</v>
+        <v>63</v>
       </c>
       <c r="I974" s="1" t="s">
-        <v>579</v>
+        <v>63</v>
       </c>
       <c r="J974" s="2" t="s">
         <v>29</v>
@@ -70618,10 +70642,10 @@
         <v>31</v>
       </c>
       <c r="N974" s="2" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="O974" s="2" t="s">
-        <v>1300</v>
+        <v>75</v>
       </c>
       <c r="P974" s="2" t="s">
         <v>33</v>
@@ -70656,22 +70680,22 @@
         <v>22</v>
       </c>
       <c r="D975" s="2" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E975" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F975" s="2" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="G975" s="1" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="H975" s="1" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="I975" s="1" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="J975" s="2" t="s">
         <v>29</v>
@@ -70686,10 +70710,10 @@
         <v>31</v>
       </c>
       <c r="N975" s="2" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="O975" s="2" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="P975" s="2" t="s">
         <v>33</v>
@@ -70724,22 +70748,22 @@
         <v>22</v>
       </c>
       <c r="D976" s="2" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="E976" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F976" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G976" s="1" t="s">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="H976" s="1" t="s">
-        <v>211</v>
+        <v>501</v>
       </c>
       <c r="I976" s="1" t="s">
-        <v>211</v>
+        <v>501</v>
       </c>
       <c r="J976" s="2" t="s">
         <v>29</v>
@@ -70757,7 +70781,7 @@
         <v>33</v>
       </c>
       <c r="O976" s="2" t="s">
-        <v>716</v>
+        <v>92</v>
       </c>
       <c r="P976" s="2" t="s">
         <v>33</v>
@@ -70792,22 +70816,22 @@
         <v>22</v>
       </c>
       <c r="D977" s="2" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="E977" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F977" s="2" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="G977" s="1" t="s">
-        <v>131</v>
+        <v>578</v>
       </c>
       <c r="H977" s="1" t="s">
-        <v>132</v>
+        <v>579</v>
       </c>
       <c r="I977" s="1" t="s">
-        <v>132</v>
+        <v>579</v>
       </c>
       <c r="J977" s="2" t="s">
         <v>29</v>
@@ -70822,10 +70846,10 @@
         <v>31</v>
       </c>
       <c r="N977" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="O977" s="2" t="s">
-        <v>238</v>
+        <v>1306</v>
       </c>
       <c r="P977" s="2" t="s">
         <v>33</v>
@@ -70866,16 +70890,16 @@
         <v>1278</v>
       </c>
       <c r="F978" s="2" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="G978" s="1" t="s">
-        <v>440</v>
+        <v>171</v>
       </c>
       <c r="H978" s="1" t="s">
-        <v>441</v>
+        <v>172</v>
       </c>
       <c r="I978" s="1" t="s">
-        <v>441</v>
+        <v>172</v>
       </c>
       <c r="J978" s="2" t="s">
         <v>29</v>
@@ -70890,10 +70914,10 @@
         <v>31</v>
       </c>
       <c r="N978" s="2" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="O978" s="2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="P978" s="2" t="s">
         <v>33</v>
@@ -70928,22 +70952,22 @@
         <v>22</v>
       </c>
       <c r="D979" s="2" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="E979" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F979" s="2" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="G979" s="1" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="H979" s="1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="I979" s="1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="J979" s="2" t="s">
         <v>29</v>
@@ -70961,7 +70985,7 @@
         <v>33</v>
       </c>
       <c r="O979" s="2" t="s">
-        <v>539</v>
+        <v>946</v>
       </c>
       <c r="P979" s="2" t="s">
         <v>33</v>
@@ -70996,22 +71020,22 @@
         <v>22</v>
       </c>
       <c r="D980" s="2" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E980" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F980" s="2" t="s">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="G980" s="1" t="s">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="H980" s="1" t="s">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="I980" s="1" t="s">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="J980" s="2" t="s">
         <v>29</v>
@@ -71029,7 +71053,7 @@
         <v>64</v>
       </c>
       <c r="O980" s="2" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
       <c r="P980" s="2" t="s">
         <v>33</v>
@@ -71064,22 +71088,22 @@
         <v>22</v>
       </c>
       <c r="D981" s="2" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="E981" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F981" s="2" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="G981" s="1" t="s">
-        <v>666</v>
+        <v>440</v>
       </c>
       <c r="H981" s="1" t="s">
-        <v>667</v>
+        <v>441</v>
       </c>
       <c r="I981" s="1" t="s">
-        <v>668</v>
+        <v>441</v>
       </c>
       <c r="J981" s="2" t="s">
         <v>29</v>
@@ -71094,10 +71118,10 @@
         <v>31</v>
       </c>
       <c r="N981" s="2" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="O981" s="2" t="s">
-        <v>1307</v>
+        <v>298</v>
       </c>
       <c r="P981" s="2" t="s">
         <v>33</v>
@@ -71132,22 +71156,22 @@
         <v>22</v>
       </c>
       <c r="D982" s="2" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="E982" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F982" s="2" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="G982" s="1" t="s">
-        <v>364</v>
+        <v>176</v>
       </c>
       <c r="H982" s="1" t="s">
-        <v>365</v>
+        <v>177</v>
       </c>
       <c r="I982" s="1" t="s">
-        <v>365</v>
+        <v>177</v>
       </c>
       <c r="J982" s="2" t="s">
         <v>29</v>
@@ -71165,7 +71189,7 @@
         <v>33</v>
       </c>
       <c r="O982" s="2" t="s">
-        <v>1219</v>
+        <v>599</v>
       </c>
       <c r="P982" s="2" t="s">
         <v>33</v>
@@ -71200,22 +71224,22 @@
         <v>22</v>
       </c>
       <c r="D983" s="2" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E983" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F983" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G983" s="1" t="s">
-        <v>446</v>
+        <v>361</v>
       </c>
       <c r="H983" s="1" t="s">
-        <v>447</v>
+        <v>362</v>
       </c>
       <c r="I983" s="1" t="s">
-        <v>448</v>
+        <v>362</v>
       </c>
       <c r="J983" s="2" t="s">
         <v>29</v>
@@ -71230,10 +71254,10 @@
         <v>31</v>
       </c>
       <c r="N983" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="O983" s="2" t="s">
-        <v>558</v>
+        <v>213</v>
       </c>
       <c r="P983" s="2" t="s">
         <v>33</v>
@@ -71268,22 +71292,22 @@
         <v>22</v>
       </c>
       <c r="D984" s="2" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="E984" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F984" s="2" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="G984" s="1" t="s">
-        <v>81</v>
+        <v>666</v>
       </c>
       <c r="H984" s="1" t="s">
-        <v>82</v>
+        <v>667</v>
       </c>
       <c r="I984" s="1" t="s">
-        <v>83</v>
+        <v>668</v>
       </c>
       <c r="J984" s="2" t="s">
         <v>29</v>
@@ -71298,10 +71322,10 @@
         <v>31</v>
       </c>
       <c r="N984" s="2" t="s">
-        <v>763</v>
+        <v>33</v>
       </c>
       <c r="O984" s="2" t="s">
-        <v>607</v>
+        <v>1313</v>
       </c>
       <c r="P984" s="2" t="s">
         <v>33</v>
@@ -71336,22 +71360,22 @@
         <v>22</v>
       </c>
       <c r="D985" s="2" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="E985" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F985" s="2" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="G985" s="1" t="s">
-        <v>149</v>
+        <v>364</v>
       </c>
       <c r="H985" s="1" t="s">
-        <v>150</v>
+        <v>365</v>
       </c>
       <c r="I985" s="1" t="s">
-        <v>151</v>
+        <v>365</v>
       </c>
       <c r="J985" s="2" t="s">
         <v>29</v>
@@ -71369,7 +71393,7 @@
         <v>33</v>
       </c>
       <c r="O985" s="2" t="s">
-        <v>777</v>
+        <v>1315</v>
       </c>
       <c r="P985" s="2" t="s">
         <v>33</v>
@@ -71404,22 +71428,22 @@
         <v>22</v>
       </c>
       <c r="D986" s="2" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="E986" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F986" s="2" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="G986" s="1" t="s">
-        <v>182</v>
+        <v>446</v>
       </c>
       <c r="H986" s="1" t="s">
-        <v>183</v>
+        <v>447</v>
       </c>
       <c r="I986" s="1" t="s">
-        <v>184</v>
+        <v>448</v>
       </c>
       <c r="J986" s="2" t="s">
         <v>29</v>
@@ -71434,10 +71458,10 @@
         <v>31</v>
       </c>
       <c r="N986" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O986" s="2" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="P986" s="2" t="s">
         <v>33</v>
@@ -71472,22 +71496,22 @@
         <v>22</v>
       </c>
       <c r="D987" s="2" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="E987" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F987" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="G987" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="H987" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I987" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="J987" s="2" t="s">
         <v>29</v>
@@ -71502,10 +71526,10 @@
         <v>31</v>
       </c>
       <c r="N987" s="2" t="s">
-        <v>278</v>
+        <v>773</v>
       </c>
       <c r="O987" s="2" t="s">
-        <v>1314</v>
+        <v>954</v>
       </c>
       <c r="P987" s="2" t="s">
         <v>33</v>
@@ -71540,22 +71564,22 @@
         <v>22</v>
       </c>
       <c r="D988" s="2" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="E988" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F988" s="2" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="G988" s="1" t="s">
-        <v>454</v>
+        <v>149</v>
       </c>
       <c r="H988" s="1" t="s">
-        <v>455</v>
+        <v>150</v>
       </c>
       <c r="I988" s="1" t="s">
-        <v>456</v>
+        <v>151</v>
       </c>
       <c r="J988" s="2" t="s">
         <v>29</v>
@@ -71573,7 +71597,7 @@
         <v>33</v>
       </c>
       <c r="O988" s="2" t="s">
-        <v>296</v>
+        <v>847</v>
       </c>
       <c r="P988" s="2" t="s">
         <v>33</v>
@@ -71608,22 +71632,22 @@
         <v>22</v>
       </c>
       <c r="D989" s="2" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="E989" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F989" s="2" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="G989" s="1" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="H989" s="1" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="I989" s="1" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="J989" s="2" t="s">
         <v>29</v>
@@ -71638,10 +71662,10 @@
         <v>31</v>
       </c>
       <c r="N989" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="O989" s="2" t="s">
-        <v>369</v>
+        <v>742</v>
       </c>
       <c r="P989" s="2" t="s">
         <v>33</v>
@@ -71676,22 +71700,22 @@
         <v>22</v>
       </c>
       <c r="D990" s="2" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="E990" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F990" s="2" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="G990" s="1" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="H990" s="1" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="I990" s="1" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="J990" s="2" t="s">
         <v>29</v>
@@ -71706,10 +71730,10 @@
         <v>31</v>
       </c>
       <c r="N990" s="2" t="s">
-        <v>92</v>
+        <v>280</v>
       </c>
       <c r="O990" s="2" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="P990" s="2" t="s">
         <v>33</v>
@@ -71744,22 +71768,22 @@
         <v>22</v>
       </c>
       <c r="D991" s="2" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="E991" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F991" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G991" s="1" t="s">
-        <v>522</v>
+        <v>862</v>
       </c>
       <c r="H991" s="1" t="s">
-        <v>523</v>
+        <v>863</v>
       </c>
       <c r="I991" s="1" t="s">
-        <v>523</v>
+        <v>863</v>
       </c>
       <c r="J991" s="2" t="s">
         <v>29</v>
@@ -71777,7 +71801,7 @@
         <v>33</v>
       </c>
       <c r="O991" s="2" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="P991" s="2" t="s">
         <v>33</v>
@@ -71818,16 +71842,16 @@
         <v>1278</v>
       </c>
       <c r="F992" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G992" s="1" t="s">
-        <v>525</v>
+        <v>454</v>
       </c>
       <c r="H992" s="1" t="s">
-        <v>526</v>
+        <v>455</v>
       </c>
       <c r="I992" s="1" t="s">
-        <v>526</v>
+        <v>456</v>
       </c>
       <c r="J992" s="2" t="s">
         <v>29</v>
@@ -71845,7 +71869,7 @@
         <v>33</v>
       </c>
       <c r="O992" s="2" t="s">
-        <v>73</v>
+        <v>377</v>
       </c>
       <c r="P992" s="2" t="s">
         <v>33</v>
@@ -71880,22 +71904,22 @@
         <v>22</v>
       </c>
       <c r="D993" s="2" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="E993" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F993" s="2" t="s">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="G993" s="1" t="s">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="H993" s="1" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="I993" s="1" t="s">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="J993" s="2" t="s">
         <v>29</v>
@@ -71913,7 +71937,7 @@
         <v>33</v>
       </c>
       <c r="O993" s="2" t="s">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="P993" s="2" t="s">
         <v>33</v>
@@ -71948,22 +71972,22 @@
         <v>22</v>
       </c>
       <c r="D994" s="2" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E994" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F994" s="2" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="G994" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="H994" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="I994" s="1" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="J994" s="2" t="s">
         <v>29</v>
@@ -71978,10 +72002,10 @@
         <v>31</v>
       </c>
       <c r="N994" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="O994" s="2" t="s">
-        <v>33</v>
+        <v>1325</v>
       </c>
       <c r="P994" s="2" t="s">
         <v>33</v>
@@ -71993,7 +72017,7 @@
         <v>33</v>
       </c>
       <c r="S994" s="2" t="s">
-        <v>389</v>
+        <v>33</v>
       </c>
       <c r="T994" s="2" t="s">
         <v>33</v>
@@ -72016,22 +72040,22 @@
         <v>22</v>
       </c>
       <c r="D995" s="2" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="E995" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F995" s="2" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G995" s="1" t="s">
-        <v>247</v>
+        <v>522</v>
       </c>
       <c r="H995" s="1" t="s">
-        <v>248</v>
+        <v>523</v>
       </c>
       <c r="I995" s="1" t="s">
-        <v>249</v>
+        <v>523</v>
       </c>
       <c r="J995" s="2" t="s">
         <v>29</v>
@@ -72046,10 +72070,10 @@
         <v>31</v>
       </c>
       <c r="N995" s="2" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="O995" s="2" t="s">
-        <v>147</v>
+        <v>328</v>
       </c>
       <c r="P995" s="2" t="s">
         <v>33</v>
@@ -72084,22 +72108,22 @@
         <v>22</v>
       </c>
       <c r="D996" s="2" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="E996" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F996" s="2" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="G996" s="1" t="s">
-        <v>409</v>
+        <v>525</v>
       </c>
       <c r="H996" s="1" t="s">
-        <v>410</v>
+        <v>526</v>
       </c>
       <c r="I996" s="1" t="s">
-        <v>410</v>
+        <v>526</v>
       </c>
       <c r="J996" s="2" t="s">
         <v>29</v>
@@ -72114,10 +72138,10 @@
         <v>31</v>
       </c>
       <c r="N996" s="2" t="s">
-        <v>1324</v>
+        <v>33</v>
       </c>
       <c r="O996" s="2" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="P996" s="2" t="s">
         <v>33</v>
@@ -72152,22 +72176,22 @@
         <v>22</v>
       </c>
       <c r="D997" s="2" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="E997" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F997" s="2" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="G997" s="1" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="H997" s="1" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="I997" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="J997" s="2" t="s">
         <v>29</v>
@@ -72185,7 +72209,7 @@
         <v>33</v>
       </c>
       <c r="O997" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="P997" s="2" t="s">
         <v>33</v>
@@ -72220,22 +72244,22 @@
         <v>22</v>
       </c>
       <c r="D998" s="2" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="E998" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F998" s="2" t="s">
-        <v>330</v>
+        <v>25</v>
       </c>
       <c r="G998" s="1" t="s">
-        <v>533</v>
+        <v>26</v>
       </c>
       <c r="H998" s="1" t="s">
-        <v>534</v>
+        <v>27</v>
       </c>
       <c r="I998" s="1" t="s">
-        <v>534</v>
+        <v>28</v>
       </c>
       <c r="J998" s="2" t="s">
         <v>29</v>
@@ -72250,10 +72274,10 @@
         <v>31</v>
       </c>
       <c r="N998" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O998" s="2" t="s">
-        <v>271</v>
+        <v>505</v>
       </c>
       <c r="P998" s="2" t="s">
         <v>33</v>
@@ -72288,22 +72312,22 @@
         <v>22</v>
       </c>
       <c r="D999" s="2" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="E999" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F999" s="2" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="G999" s="1" t="s">
-        <v>614</v>
+        <v>273</v>
       </c>
       <c r="H999" s="1" t="s">
-        <v>615</v>
+        <v>274</v>
       </c>
       <c r="I999" s="1" t="s">
-        <v>615</v>
+        <v>275</v>
       </c>
       <c r="J999" s="2" t="s">
         <v>29</v>
@@ -72318,10 +72342,10 @@
         <v>31</v>
       </c>
       <c r="N999" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="O999" s="2" t="s">
-        <v>477</v>
+        <v>43</v>
       </c>
       <c r="P999" s="2" t="s">
         <v>33</v>
@@ -72333,7 +72357,7 @@
         <v>33</v>
       </c>
       <c r="S999" s="2" t="s">
-        <v>33</v>
+        <v>395</v>
       </c>
       <c r="T999" s="2" t="s">
         <v>33</v>
@@ -72356,22 +72380,22 @@
         <v>22</v>
       </c>
       <c r="D1000" s="2" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="E1000" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F1000" s="2" t="s">
-        <v>332</v>
+        <v>246</v>
       </c>
       <c r="G1000" s="1" t="s">
-        <v>1266</v>
+        <v>247</v>
       </c>
       <c r="H1000" s="1" t="s">
-        <v>1267</v>
+        <v>248</v>
       </c>
       <c r="I1000" s="1" t="s">
-        <v>1267</v>
+        <v>249</v>
       </c>
       <c r="J1000" s="2" t="s">
         <v>29</v>
@@ -72386,10 +72410,10 @@
         <v>31</v>
       </c>
       <c r="N1000" s="2" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="O1000" s="2" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="P1000" s="2" t="s">
         <v>33</v>
@@ -72430,16 +72454,16 @@
         <v>1278</v>
       </c>
       <c r="F1001" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G1001" s="1" t="s">
-        <v>536</v>
+        <v>409</v>
       </c>
       <c r="H1001" s="1" t="s">
-        <v>537</v>
+        <v>410</v>
       </c>
       <c r="I1001" s="1" t="s">
-        <v>537</v>
+        <v>410</v>
       </c>
       <c r="J1001" s="2" t="s">
         <v>29</v>
@@ -72454,10 +72478,10 @@
         <v>31</v>
       </c>
       <c r="N1001" s="2" t="s">
-        <v>33</v>
+        <v>1332</v>
       </c>
       <c r="O1001" s="2" t="s">
-        <v>656</v>
+        <v>341</v>
       </c>
       <c r="P1001" s="2" t="s">
         <v>33</v>
@@ -72492,22 +72516,22 @@
         <v>22</v>
       </c>
       <c r="D1002" s="2" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="E1002" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F1002" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G1002" s="1" t="s">
-        <v>465</v>
+        <v>609</v>
       </c>
       <c r="H1002" s="1" t="s">
-        <v>466</v>
+        <v>610</v>
       </c>
       <c r="I1002" s="1" t="s">
-        <v>466</v>
+        <v>611</v>
       </c>
       <c r="J1002" s="2" t="s">
         <v>29</v>
@@ -72522,10 +72546,10 @@
         <v>31</v>
       </c>
       <c r="N1002" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="O1002" s="2" t="s">
-        <v>1330</v>
+        <v>332</v>
       </c>
       <c r="P1002" s="2" t="s">
         <v>33</v>
@@ -72560,22 +72584,22 @@
         <v>22</v>
       </c>
       <c r="D1003" s="2" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="E1003" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F1003" s="2" t="s">
-        <v>154</v>
+        <v>330</v>
       </c>
       <c r="G1003" s="1" t="s">
-        <v>155</v>
+        <v>533</v>
       </c>
       <c r="H1003" s="1" t="s">
-        <v>156</v>
+        <v>534</v>
       </c>
       <c r="I1003" s="1" t="s">
-        <v>156</v>
+        <v>534</v>
       </c>
       <c r="J1003" s="2" t="s">
         <v>29</v>
@@ -72590,10 +72614,10 @@
         <v>31</v>
       </c>
       <c r="N1003" s="2" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="O1003" s="2" t="s">
-        <v>97</v>
+        <v>331</v>
       </c>
       <c r="P1003" s="2" t="s">
         <v>33</v>
@@ -72628,22 +72652,22 @@
         <v>22</v>
       </c>
       <c r="D1004" s="2" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="E1004" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F1004" s="2" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="G1004" s="1" t="s">
-        <v>304</v>
+        <v>614</v>
       </c>
       <c r="H1004" s="1" t="s">
-        <v>305</v>
+        <v>615</v>
       </c>
       <c r="I1004" s="1" t="s">
-        <v>306</v>
+        <v>615</v>
       </c>
       <c r="J1004" s="2" t="s">
         <v>29</v>
@@ -72658,10 +72682,10 @@
         <v>31</v>
       </c>
       <c r="N1004" s="2" t="s">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="O1004" s="2" t="s">
-        <v>1161</v>
+        <v>711</v>
       </c>
       <c r="P1004" s="2" t="s">
         <v>33</v>
@@ -72702,16 +72726,16 @@
         <v>1278</v>
       </c>
       <c r="F1005" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G1005" s="1" t="s">
-        <v>542</v>
+        <v>1266</v>
       </c>
       <c r="H1005" s="1" t="s">
-        <v>543</v>
+        <v>1267</v>
       </c>
       <c r="I1005" s="1" t="s">
-        <v>543</v>
+        <v>1267</v>
       </c>
       <c r="J1005" s="2" t="s">
         <v>29</v>
@@ -72726,10 +72750,10 @@
         <v>31</v>
       </c>
       <c r="N1005" s="2" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="O1005" s="2" t="s">
-        <v>117</v>
+        <v>335</v>
       </c>
       <c r="P1005" s="2" t="s">
         <v>33</v>
@@ -72764,22 +72788,22 @@
         <v>22</v>
       </c>
       <c r="D1006" s="2" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="E1006" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F1006" s="2" t="s">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="G1006" s="1" t="s">
-        <v>222</v>
+        <v>536</v>
       </c>
       <c r="H1006" s="1" t="s">
-        <v>223</v>
+        <v>537</v>
       </c>
       <c r="I1006" s="1" t="s">
-        <v>223</v>
+        <v>537</v>
       </c>
       <c r="J1006" s="2" t="s">
         <v>29</v>
@@ -72797,7 +72821,7 @@
         <v>33</v>
       </c>
       <c r="O1006" s="2" t="s">
-        <v>899</v>
+        <v>680</v>
       </c>
       <c r="P1006" s="2" t="s">
         <v>33</v>
@@ -72832,60 +72856,468 @@
         <v>22</v>
       </c>
       <c r="D1007" s="2" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="E1007" s="2" t="s">
         <v>1278</v>
       </c>
       <c r="F1007" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1007" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H1007" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I1007" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J1007" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1007" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1007" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1007" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1007" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1007" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="P1007" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1007" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1007" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1007" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1007" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1007" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1007" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1008" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1008" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E1008" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F1008" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1008" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1008" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1008" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1008" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1008" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1008" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1008" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1008" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1008" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1008" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1008" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1008" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1008" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1008" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1008" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1008" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1009" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1009" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1009" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F1009" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1009" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1009" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1009" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1009" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1009" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1009" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1009" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1009" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1009" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="P1009" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1009" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1009" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1009" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1009" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1009" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1009" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1010" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1010" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F1010" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1010" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1010" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I1010" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J1010" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1010" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1010" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1010" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1010" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1010" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1010" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1010" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1010" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1010" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1010" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1010" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1010" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1011" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E1011" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1011" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1011" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1011" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1011" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1011" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1011" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1011" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1011" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1011" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="P1011" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1011" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1011" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1011" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1011" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1011" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1011" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1012" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E1012" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F1012" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G1007" s="1" t="s">
+      <c r="G1012" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="H1007" s="1" t="s">
+      <c r="H1012" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I1007" s="1" t="s">
+      <c r="I1012" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="J1007" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1007" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1007" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1007" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1007" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="O1007" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1007" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1007" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1007" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1007" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1007" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1007" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1007" s="2" t="s">
+      <c r="J1012" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1012" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1012" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1012" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1012" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O1012" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P1012" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1012" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1012" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1012" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1012" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1012" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1012" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1013" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E1013" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F1013" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1013" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H1013" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1013" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="J1013" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1013" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1013" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1013" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1013" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1013" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1013" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1013" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1013" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1013" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1013" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1013" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1013" s="2" t="s">
         <v>33</v>
       </c>
     </row>
